--- a/src/data/SHJ metadata.xlsx
+++ b/src/data/SHJ metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyumao/Documents/GitHub/Shjfishimage/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F02A8-FC41-A04B-A4D6-4E7815A62408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA443774-8623-7947-9B78-634EDDF5DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="2880" windowWidth="37460" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="2880" windowWidth="37460" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - ShanHaiJing_Fish_Datase" sheetId="1" r:id="rId1"/>
@@ -6117,12 +6117,6 @@
     <t>线性、平面化、封闭形式、象征性、博物志化</t>
   </si>
   <si>
-    <t>“如鲤”：✅ 鱼体鳞片、鳍、嘴形皆取鲤形特征。
-“六足”：✅ 明显可见三对足，前中后分布，符合六足描写。
-“鸟尾”：✅ 尾部呈羽状分叉结构，非鱼鳍状，明显鸟羽形态。
-→ 几乎完整体现原文所有关键特征。</t>
-  </si>
-  <si>
     <t>文本忠实度评分：5 / 5</t>
   </si>
   <si>
@@ -6482,6 +6476,12 @@
   </si>
   <si>
     <t>fish_chiru_05_a1</t>
+  </si>
+  <si>
+    <t>“如鲤”：鱼体鳞片、鳍、嘴形皆取鲤形特征。
+“六足”：明显可见三对足，前中后分布，符合六足描写。
+“鸟尾”：尾部呈羽状分叉结构，非鱼鳍状，明显鸟羽形态。
+→ 几乎完整体现原文所有关键特征。</t>
   </si>
 </sst>
 </file>
@@ -6706,7 +6706,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6774,6 +6774,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -7908,8 +7914,8 @@
   </sheetPr>
   <dimension ref="A1:AE96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N24" zoomScale="115" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -8240,7 +8246,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>33</v>
@@ -8430,7 +8436,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>128</v>
@@ -8620,7 +8626,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>128</v>
@@ -8810,7 +8816,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>203</v>
@@ -9000,7 +9006,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>243</v>
@@ -9190,7 +9196,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>281</v>
@@ -9380,7 +9386,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>319</v>
@@ -9570,7 +9576,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>359</v>
@@ -9760,7 +9766,7 @@
         <v>81</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>375</v>
@@ -9855,7 +9861,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>413</v>
@@ -10045,7 +10051,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>427</v>
@@ -10235,7 +10241,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>486</v>
@@ -10371,7 +10377,7 @@
       <c r="P26" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="24" t="s">
         <v>510</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -10425,7 +10431,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>486</v>
@@ -10615,7 +10621,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>559</v>
@@ -10805,7 +10811,7 @@
         <v>81</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>590</v>
@@ -10995,7 +11001,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>626</v>
@@ -11185,7 +11191,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>626</v>
@@ -11375,7 +11381,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>695</v>
@@ -11425,7 +11431,7 @@
       <c r="S37" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="T37" s="8" t="s">
+      <c r="T37" s="23" t="s">
         <v>706</v>
       </c>
       <c r="U37" s="1" t="s">
@@ -11606,7 +11612,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>745</v>
@@ -11796,7 +11802,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>745</v>
@@ -11986,7 +11992,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>812</v>
@@ -12366,7 +12372,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>892</v>
@@ -12651,7 +12657,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>944</v>
@@ -12746,7 +12752,7 @@
         <v>81</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>959</v>
@@ -12841,7 +12847,7 @@
         <v>31</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>977</v>
@@ -12936,7 +12942,7 @@
         <v>81</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>977</v>
@@ -13126,7 +13132,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>1025</v>
@@ -13316,7 +13322,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>1025</v>
@@ -13411,7 +13417,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>1082</v>
@@ -13601,7 +13607,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>1106</v>
@@ -13696,7 +13702,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>1143</v>
@@ -13886,7 +13892,7 @@
         <v>81</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>1181</v>
@@ -13981,7 +13987,7 @@
         <v>31</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>1199</v>
@@ -14171,7 +14177,7 @@
         <v>81</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>1234</v>
@@ -14266,7 +14272,7 @@
         <v>31</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>1251</v>
@@ -14551,7 +14557,7 @@
         <v>31</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>1308</v>
@@ -14741,7 +14747,7 @@
         <v>81</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>1336</v>
@@ -14836,7 +14842,7 @@
         <v>31</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>1354</v>
@@ -15121,7 +15127,7 @@
         <v>31</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>1406</v>
@@ -15406,7 +15412,7 @@
         <v>31</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>1464</v>
@@ -15501,7 +15507,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>1464</v>
@@ -15691,7 +15697,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>1510</v>
@@ -15881,7 +15887,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>1541</v>
@@ -16071,7 +16077,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>1573</v>
@@ -16261,7 +16267,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>1594</v>
@@ -16356,7 +16362,7 @@
         <v>81</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>1594</v>
@@ -16451,7 +16457,7 @@
         <v>31</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>1624</v>
@@ -16641,7 +16647,7 @@
         <v>31</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>1652</v>
@@ -16691,41 +16697,41 @@
       <c r="S93" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="T93" s="8" t="s">
+      <c r="T93" s="23" t="s">
+        <v>1769</v>
+      </c>
+      <c r="U93" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="U93" s="1" t="s">
+      <c r="V93" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="V93" s="1" t="s">
+      <c r="W93" s="8" t="s">
         <v>1664</v>
       </c>
-      <c r="W93" s="8" t="s">
+      <c r="X93" s="8" t="s">
         <v>1665</v>
       </c>
-      <c r="X93" s="8" t="s">
+      <c r="Y93" s="8" t="s">
         <v>1666</v>
       </c>
-      <c r="Y93" s="8" t="s">
+      <c r="Z93" s="8" t="s">
         <v>1667</v>
       </c>
-      <c r="Z93" s="8" t="s">
+      <c r="AA93" s="8" t="s">
         <v>1668</v>
       </c>
-      <c r="AA93" s="8" t="s">
+      <c r="AB93" s="8" t="s">
         <v>1669</v>
       </c>
-      <c r="AB93" s="8" t="s">
+      <c r="AC93" s="8" t="s">
         <v>1670</v>
       </c>
-      <c r="AC93" s="8" t="s">
+      <c r="AD93" s="8" t="s">
         <v>1671</v>
       </c>
-      <c r="AD93" s="8" t="s">
+      <c r="AE93" s="8" t="s">
         <v>1672</v>
-      </c>
-      <c r="AE93" s="8" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="36.5" customHeight="1">
@@ -16736,10 +16742,10 @@
         <v>81</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>320</v>
@@ -16748,7 +16754,7 @@
         <v>83</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>1654</v>
@@ -16769,58 +16775,58 @@
         <v>320</v>
       </c>
       <c r="N94" s="8" t="s">
+        <v>1675</v>
+      </c>
+      <c r="O94" s="8" t="s">
         <v>1676</v>
       </c>
-      <c r="O94" s="8" t="s">
+      <c r="P94" s="8" t="s">
         <v>1677</v>
       </c>
-      <c r="P94" s="8" t="s">
+      <c r="Q94" s="8" t="s">
         <v>1678</v>
       </c>
-      <c r="Q94" s="8" t="s">
+      <c r="R94" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="R94" s="8" t="s">
+      <c r="S94" s="8" t="s">
         <v>1680</v>
       </c>
-      <c r="S94" s="8" t="s">
+      <c r="T94" s="8" t="s">
         <v>1681</v>
-      </c>
-      <c r="T94" s="8" t="s">
-        <v>1682</v>
       </c>
       <c r="U94" s="1">
         <v>3</v>
       </c>
       <c r="V94" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="W94" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="W94" s="1" t="s">
+      <c r="X94" s="1" t="s">
         <v>1684</v>
-      </c>
-      <c r="X94" s="1" t="s">
-        <v>1685</v>
       </c>
       <c r="Y94" s="1">
         <v>2</v>
       </c>
       <c r="Z94" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AA94" s="8" t="s">
         <v>1686</v>
       </c>
-      <c r="AA94" s="8" t="s">
+      <c r="AB94" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="AB94" s="1" t="s">
+      <c r="AC94" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="AC94" s="1" t="s">
+      <c r="AD94" s="8" t="s">
         <v>1689</v>
       </c>
-      <c r="AD94" s="8" t="s">
+      <c r="AE94" s="1" t="s">
         <v>1690</v>
-      </c>
-      <c r="AE94" s="1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" customHeight="1">
@@ -16831,10 +16837,10 @@
         <v>31</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>34</v>
@@ -16843,13 +16849,13 @@
         <v>35</v>
       </c>
       <c r="G95" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>1693</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>1694</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>1695</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>39</v>
@@ -16864,10 +16870,10 @@
         <v>42</v>
       </c>
       <c r="N95" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>1696</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>1697</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>288</v>
@@ -16882,7 +16888,7 @@
         <v>48</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="U95" s="1">
         <v>3</v>
@@ -16891,7 +16897,7 @@
         <v>216</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="X95" s="1" t="s">
         <v>293</v>
@@ -16926,10 +16932,10 @@
         <v>59</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>1700</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>1701</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>61</v>
@@ -16938,13 +16944,13 @@
         <v>39</v>
       </c>
       <c r="G96" s="5" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>1702</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>1703</v>
-      </c>
       <c r="I96" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>108</v>
@@ -16959,58 +16965,58 @@
         <v>61</v>
       </c>
       <c r="N96" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="Q96" s="1" t="s">
+      <c r="R96" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="R96" s="1" t="s">
+      <c r="S96" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="S96" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>1709</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>1710</v>
       </c>
       <c r="U96" s="1">
         <v>6</v>
       </c>
       <c r="V96" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="W96" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="W96" s="1" t="s">
+      <c r="X96" s="1" t="s">
         <v>1712</v>
-      </c>
-      <c r="X96" s="1" t="s">
-        <v>1713</v>
       </c>
       <c r="Y96" s="1">
         <v>9</v>
       </c>
       <c r="Z96" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AA96" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="AA96" s="1" t="s">
+      <c r="AB96" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="AB96" s="1" t="s">
+      <c r="AC96" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="AC96" s="1" t="s">
+      <c r="AD96" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="AD96" s="1" t="s">
+      <c r="AE96" s="1" t="s">
         <v>1718</v>
-      </c>
-      <c r="AE96" s="1" t="s">
-        <v>1719</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/SHJ metadata.xlsx
+++ b/src/data/SHJ metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyumao/Documents/GitHub/Shjfishimage/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784DD452-E248-3649-B8AE-1C6E3F18A5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A7EBA-5A3C-814C-8F47-37D0FF615215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="2880" windowWidth="37460" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="27960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - ShanHaiJing_Fish_Datase" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1759">
   <si>
     <t>Version</t>
   </si>
@@ -2405,16 +2405,6 @@
     <t>线性、平面化、象征性、简约、文献性</t>
   </si>
   <si>
-    <t>形似豚：✅ 鱼头圆钝，口鼻短阔，有猪样特征。
-赤文：❌ 图像为单色黑线，未呈现“赤文”特征。
-无羽：✅ 确认无翼。
-飞翔：⚪ 通过鱼体弯曲与上扬姿态略有暗示，但无明确“飞行”环境。
-→ 总体评价：部分忠实于形态，但缺乏色彩和动态层面的表现。</t>
-  </si>
-  <si>
-    <t>文本忠实度评分：3 / 5</t>
-  </si>
-  <si>
     <t>食之辟兵” → 食用可避兵祸。
 “不畏雷” → 对雷电免疫，象征勇敢、镇定、辟邪。</t>
   </si>
@@ -2427,9 +2417,6 @@
 无兵器、雷电、环境背景等指示性元素。
 仅呈现生物学外貌，而非其功能象征。
 姿态略显温和、静止，未强调其“威能”或“护卫”特征。</t>
-  </si>
-  <si>
-    <t>象征呈现度评分：2 / 5</t>
   </si>
   <si>
     <t>图像为静态肖像式描绘（specimen-like），无叙事情节。
@@ -2830,9 +2817,6 @@
     <t>根据《山海经》的描述，“状如鱣，八目，见则大旱，出膏冰”，图中的薄鱼与描述的形态（鱼状、八目）相符。然而，图像并未明确表现“八目”这一特征，这部分较为模糊。此外，虽然图像展示了鱼的整体形态，但对于描述中“出膏冰”的部分没有明显的视觉再现。总体来看，图像对原文的忠实度较高，但仍有部分缺失。</t>
   </si>
   <si>
-    <t>4（部分符合，鱼的形态和描述基本匹配，但“八目”和“出膏冰”缺失）</t>
-  </si>
-  <si>
     <t>根据原文，见到薄鱼可能预示着干旱。因此，薄鱼的存在或许具有警示性，警告即将发生的灾难。</t>
   </si>
   <si>
@@ -2840,9 +2824,6 @@
   </si>
   <si>
     <t>图像主要聚焦于薄鱼的形态描绘，未能通过环境、色调或姿态等方式强调其吉凶寓意。虽然鱼的形态传达了某种神秘感，但缺乏直接表达预兆的视觉元素。整体而言，图像未显著传达灾难或预兆的意义。</t>
-  </si>
-  <si>
-    <t>3（间接暗示寓意，通过形态传达神秘感，但未明确通过其他元素表达吉凶）</t>
   </si>
   <si>
     <t>图像没有明确的叙事性，它呈现的只是一个静态的形象。薄鱼并没有表现出任何动作，图像只是描绘了一个固定的状态。</t>
@@ -3568,9 +3549,6 @@
     <t>根据《山海经》的描述，“多赤鱬音儒其狀如魚而人面其音如鴛鴦食之不疥一作疾”，这幅图形象地描绘了赤鱬的鱼形体态和人面特征。尽管鱼面未完全显现为“人面”，但鱼的面部呈现出拟人化的表情（眼睛大而突出，口部微张），与文本中的描述相符。图中的赤鱬形态符合其“鱼而人面”的特征。波浪的表现和鱼的游动则表现了其生活环境，但没有直接表征“音如鴛鴦”的声音。</t>
   </si>
   <si>
-    <t>4（部分符合，鱼的形态与描述相符，但“人面”和“音如鴛鴦”部分未显现）</t>
-  </si>
-  <si>
     <t>根据原文，赤鱬食用后能治病（不疥）或使人免于疾患。图像通过鱼的自然形态展现了它可能带来的治愈效应，但未通过其他视觉元素明确传达这一功能。</t>
   </si>
   <si>
@@ -3578,9 +3556,6 @@
   </si>
   <si>
     <t>图像未通过色彩或明显的符号来表达赤鱬的治病功能，但通过鱼体的姿态和水波的动态感，间接传达了它与自然的和谐关系。整体看，图像并未深刻地揭示它的象征意义，而是更加注重形态的再现。</t>
-  </si>
-  <si>
-    <t>3（间接暗示寓意，主要通过形态和背景元素表现）</t>
   </si>
   <si>
     <t>图像呈现的是赤鱬在水中的动态状态，尽管没有明显的情节发展，但水波和鱼体的姿态表现出它正在活动或移动的状态，给人一种流动的感觉。图像没有讲述具体的故事，但它展示了赤鱬与自然环境的互动。</t>
@@ -3770,15 +3745,6 @@
     <t>关键词：线性、图式化、平衡、象征性、文献性。</t>
   </si>
   <si>
-    <t>状如鲔”：图中鱼体厚实，头部肥圆，与鲔鱼体型接近 → ✅ 符合。
-“赤喙”：图像为黑白线描，未能表现“赤”色 → ❌ 未体现。
-“尾赤羽”：尾部画有羽状鳍，但未明确表现“赤色” → ⬜ 部分体现。
-“可以已白癣”：图像未出现象征治病的附属意象 → ❌ 未表现。</t>
-  </si>
-  <si>
-    <t>文本忠实度评分：3 / 5（部分符合）</t>
-  </si>
-  <si>
     <t>根据原文，豪鱼具有医药功能——其肉或形象可“已白癣”，是一种带有治病功效的祥瑞鱼</t>
   </si>
   <si>
@@ -3788,9 +3754,6 @@
     <t>图像仅描绘生物形态，无药性暗示、无场景（如病者、草药、水域）
 缺乏视觉符号来暗示“疗愈”功能或吉兆性。
 因此表现停留在自然志层面，而非象征层面。</t>
-  </si>
-  <si>
-    <t>象征呈现度评分：2 / 5（仅形态再现，忽略寓意）</t>
   </si>
   <si>
     <t>图像非叙事，而是静态标本式肖像。
@@ -3981,9 +3944,6 @@
     <t>根据《山海经》的描述，“其中多赤鮭今名鯸鮐為鮭魚音圭”，图像中的赤鲑形态与文中描述的鱼形状基本相符。虽然原文未详细描述鱼的其他特征，但图像呈现了赤鲑作为鱼类的基本形态，并使用简洁的线条捕捉了其动态。然而，图像未明确指出鱼的颜色（如“赤”）或可能的象征，因此整体忠实度尚可。</t>
   </si>
   <si>
-    <t>4（部分符合，鱼的形态与描述相符，但未呈现赤色及其他更具象征性的细节）</t>
-  </si>
-  <si>
     <t>从原文来看，赤鲑在一定文化背景下可能与某些预兆或效果相关，然而图像并未明确展示这种功能性或效果。</t>
   </si>
   <si>
@@ -3991,9 +3951,6 @@
   </si>
   <si>
     <t>图像更多地展示了赤鲑的自然形态，缺乏具体的视觉元素来突出其象征性意义。它没有显著地通过色彩、姿态或环境传达吉凶预兆等寓意，更多的是忠实于形态的再现。</t>
-  </si>
-  <si>
-    <t>2（基本呈现形态，但未直接表现其象征性寓意）</t>
   </si>
   <si>
     <t>这幅图并未讲述一个具体的故事，而是呈现了赤鲑的静态肖像。虽然鱼体略微弯曲，给人一种运动的感觉，但并未体现具体的行动或动态情节。</t>
@@ -5630,9 +5587,6 @@
     <t>线性、平面化、封闭形式、象征性、博物志化</t>
   </si>
   <si>
-    <t>文本忠实度评分：5 / 5</t>
-  </si>
-  <si>
     <t>《山海经》原文未直接记载鮯鮯鱼的功效，但依其形态（“鱼身鸟尾”）可视为水陆兼具、阴阳调和之象，可能暗示“变通”“双栖”“生化之奇”。</t>
   </si>
   <si>
@@ -5643,10 +5597,6 @@
     <t>图像未添加雷电、水波、环境背景等象征线索，仅以形体传义。
 通过“仰首上望”的姿态，间接暗示其“鸟性”与“升逸”特征。
 鳞片的节奏感与尾羽的扩张线条，在视觉上产生“上升”导向的心理暗示。</t>
-  </si>
-  <si>
-    <t>象征呈现度评分：3 / 5
-（寓意被形态隐喻吸收，而未通过视觉叙事外显。）</t>
   </si>
   <si>
     <t>无叙事场景，属静态标本式描绘。
@@ -6483,12 +6433,41 @@
 图像与文字共同构成“世界—知识—再现”的认知体系。
 在潘诺夫斯基的层级体系中，属于“象征性形式的视觉化”（symbolic form in epistemic representation）。</t>
   </si>
+  <si>
+    <t>状如鲔”：图中鱼体厚实，头部肥圆，与鲔鱼体型接近 →  符合。
+“赤喙”：图像为黑白线描，未能表现“赤”色 →  未体现。
+“尾赤羽”：尾部画有羽状鳍，但未明确表现“赤色” → ⬜ 部分体现。
+“可以已白癣”：图像未出现象征治病的附属意象 →  未表现。</t>
+  </si>
+  <si>
+    <t>形似豚： 鱼头圆钝，口鼻短阔，有猪样特征。
+赤文： 图像为单色黑线，未呈现“赤文”特征。
+无羽： 确认无翼。
+飞翔： 通过鱼体弯曲与上扬姿态略有暗示，但无明确“飞行”环境。
+→ 总体评价：部分忠实于形态，但缺乏色彩和动态层面的表现。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（评分</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -6532,6 +6511,13 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6706,7 +6692,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6781,6 +6767,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7914,8 +7915,8 @@
   </sheetPr>
   <dimension ref="A1:AE96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H5" zoomScale="115" workbookViewId="0">
-      <selection activeCell="Y59" sqref="Y59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -7939,11 +7940,11 @@
     <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
     <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="25.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6640625" style="26" customWidth="1"/>
     <col min="22" max="22" width="26" style="1" customWidth="1"/>
     <col min="23" max="23" width="23.33203125" style="1" customWidth="1"/>
     <col min="24" max="24" width="29.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="26.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="26.6640625" style="26" customWidth="1"/>
     <col min="26" max="26" width="24.83203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="27.83203125" style="1" customWidth="1"/>
     <col min="28" max="28" width="21.1640625" style="1" customWidth="1"/>
@@ -8014,7 +8015,7 @@
       <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="25" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="15" t="s">
@@ -8026,7 +8027,7 @@
       <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="25" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="15" t="s">
@@ -8109,7 +8110,7 @@
       <c r="T2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="26">
         <v>3</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -8121,7 +8122,7 @@
       <c r="X2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="26">
         <v>2</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -8204,8 +8205,8 @@
       <c r="T3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="1">
-        <v>6</v>
+      <c r="U3" s="26">
+        <v>3</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>72</v>
@@ -8216,8 +8217,8 @@
       <c r="X3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Y3" s="1">
-        <v>8</v>
+      <c r="Y3" s="26">
+        <v>4</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>75</v>
@@ -8246,7 +8247,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1619</v>
+        <v>1605</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>33</v>
@@ -8299,7 +8300,7 @@
       <c r="T4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="26">
         <v>4</v>
       </c>
       <c r="V4" s="8" t="s">
@@ -8311,7 +8312,7 @@
       <c r="X4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="26">
         <v>1</v>
       </c>
       <c r="Z4" s="8" t="s">
@@ -8374,10 +8375,10 @@
         <v>104</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>1669</v>
+        <v>1655</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>1670</v>
+        <v>1656</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>110</v>
@@ -8394,7 +8395,7 @@
       <c r="T5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="27" t="s">
         <v>115</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -8406,11 +8407,11 @@
       <c r="X5" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Y5" s="8" t="s">
+      <c r="Y5" s="27" t="s">
         <v>119</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>1671</v>
+        <v>1657</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>120</v>
@@ -8422,7 +8423,7 @@
         <v>122</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>1672</v>
+        <v>1658</v>
       </c>
       <c r="AE5" s="8" t="s">
         <v>123</v>
@@ -8436,7 +8437,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1620</v>
+        <v>1606</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>124</v>
@@ -8489,7 +8490,7 @@
       <c r="T6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="26">
         <v>3</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -8501,7 +8502,7 @@
       <c r="X6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="26">
         <v>2</v>
       </c>
       <c r="Z6" s="1" t="s">
@@ -8584,8 +8585,8 @@
       <c r="T7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="U7" s="1">
-        <v>7</v>
+      <c r="U7" s="26">
+        <v>3</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>153</v>
@@ -8596,8 +8597,8 @@
       <c r="X7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Y7" s="1">
-        <v>8</v>
+      <c r="Y7" s="28" t="s">
+        <v>1758</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>156</v>
@@ -8626,7 +8627,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>1621</v>
+        <v>1607</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
@@ -8679,7 +8680,7 @@
       <c r="T8" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="26">
         <v>3</v>
       </c>
       <c r="V8" s="8" t="s">
@@ -8691,7 +8692,7 @@
       <c r="X8" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="26">
         <v>3</v>
       </c>
       <c r="Z8" s="1" t="s">
@@ -8754,10 +8755,10 @@
         <v>104</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>1673</v>
+        <v>1659</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>1674</v>
+        <v>1660</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>181</v>
@@ -8774,7 +8775,7 @@
       <c r="T9" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="27" t="s">
         <v>186</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -8786,20 +8787,20 @@
       <c r="X9" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Y9" s="27" t="s">
         <v>190</v>
       </c>
       <c r="Z9" s="8" t="s">
         <v>191</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>1675</v>
+        <v>1661</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>192</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>1676</v>
+        <v>1662</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>193</v>
@@ -8816,7 +8817,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1622</v>
+        <v>1608</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>195</v>
@@ -8869,7 +8870,7 @@
       <c r="T10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="26">
         <v>3</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -8881,7 +8882,7 @@
       <c r="X10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="26">
         <v>2</v>
       </c>
       <c r="Z10" s="1" t="s">
@@ -8964,8 +8965,8 @@
       <c r="T11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="U11" s="1">
-        <v>8</v>
+      <c r="U11" s="26">
+        <v>4</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>226</v>
@@ -8976,8 +8977,8 @@
       <c r="X11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Y11" s="1">
-        <v>8</v>
+      <c r="Y11" s="26">
+        <v>4</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>229</v>
@@ -9006,7 +9007,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1623</v>
+        <v>1609</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>235</v>
@@ -9059,7 +9060,7 @@
       <c r="T12" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="26">
         <v>4</v>
       </c>
       <c r="V12" s="8" t="s">
@@ -9071,7 +9072,7 @@
       <c r="X12" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="26">
         <v>3</v>
       </c>
       <c r="Z12" s="8" t="s">
@@ -9081,7 +9082,7 @@
         <v>248</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>1677</v>
+        <v>1663</v>
       </c>
       <c r="AC12" s="8" t="s">
         <v>249</v>
@@ -9090,7 +9091,7 @@
         <v>250</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>1678</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="20" customHeight="1">
@@ -9134,13 +9135,13 @@
         <v>104</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>1679</v>
+        <v>1665</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>1680</v>
+        <v>1666</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>1681</v>
+        <v>1667</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>253</v>
@@ -9154,19 +9155,19 @@
       <c r="T13" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="U13" s="27" t="s">
         <v>257</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>258</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1682</v>
+        <v>1668</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>1683</v>
-      </c>
-      <c r="Y13" s="8" t="s">
+        <v>1669</v>
+      </c>
+      <c r="Y13" s="27" t="s">
         <v>259</v>
       </c>
       <c r="Z13" s="8" t="s">
@@ -9182,10 +9183,10 @@
         <v>263</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>1684</v>
+        <v>1670</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>1685</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="20" customHeight="1">
@@ -9196,7 +9197,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>1624</v>
+        <v>1610</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>264</v>
@@ -9249,7 +9250,7 @@
       <c r="T14" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="26">
         <v>3</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -9261,7 +9262,7 @@
       <c r="X14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="26">
         <v>2</v>
       </c>
       <c r="Z14" s="1" t="s">
@@ -9344,7 +9345,7 @@
       <c r="T15" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="26">
         <v>5</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -9356,8 +9357,8 @@
       <c r="X15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Y15" s="1">
-        <v>9</v>
+      <c r="Y15" s="26">
+        <v>4</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>296</v>
@@ -9386,7 +9387,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1625</v>
+        <v>1611</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>302</v>
@@ -9439,7 +9440,7 @@
       <c r="T16" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="26">
         <v>3</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -9451,7 +9452,7 @@
       <c r="X16" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="26">
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="s">
@@ -9514,13 +9515,13 @@
         <v>104</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>1686</v>
+        <v>1672</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>1687</v>
+        <v>1673</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>1688</v>
+        <v>1674</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>324</v>
@@ -9534,7 +9535,7 @@
       <c r="T17" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="U17" s="27" t="s">
         <v>328</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -9546,26 +9547,26 @@
       <c r="X17" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="Y17" s="8" t="s">
+      <c r="Y17" s="27" t="s">
         <v>332</v>
       </c>
       <c r="Z17" s="8" t="s">
         <v>333</v>
       </c>
       <c r="AA17" s="8" t="s">
-        <v>1689</v>
+        <v>1675</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>334</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>1690</v>
+        <v>1676</v>
       </c>
       <c r="AD17" s="8" t="s">
-        <v>1691</v>
+        <v>1677</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>1692</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="20" customHeight="1">
@@ -9576,7 +9577,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1626</v>
+        <v>1612</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>335</v>
@@ -9629,7 +9630,7 @@
       <c r="T18" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="26">
         <v>3</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -9641,7 +9642,7 @@
       <c r="X18" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="26">
         <v>2</v>
       </c>
       <c r="Z18" s="1" t="s">
@@ -9724,8 +9725,8 @@
       <c r="T19" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="U19" s="1">
-        <v>9</v>
+      <c r="U19" s="26">
+        <v>4</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>363</v>
@@ -9736,8 +9737,8 @@
       <c r="X19" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="Y19" s="1">
-        <v>9</v>
+      <c r="Y19" s="26">
+        <v>4</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>366</v>
@@ -9766,7 +9767,7 @@
         <v>81</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>1627</v>
+        <v>1613</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>351</v>
@@ -9819,7 +9820,7 @@
       <c r="T20" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="26">
         <v>4</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -9831,7 +9832,7 @@
       <c r="X20" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="26">
         <v>1</v>
       </c>
       <c r="Z20" s="1" t="s">
@@ -9861,7 +9862,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1628</v>
+        <v>1614</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>389</v>
@@ -9914,7 +9915,7 @@
       <c r="T21" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="26">
         <v>3</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -9926,7 +9927,7 @@
       <c r="X21" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="26">
         <v>2</v>
       </c>
       <c r="Z21" s="1" t="s">
@@ -10009,8 +10010,8 @@
       <c r="T22" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="U22" s="1">
-        <v>7</v>
+      <c r="U22" s="26">
+        <v>3</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>415</v>
@@ -10021,8 +10022,8 @@
       <c r="X22" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="Y22" s="1">
-        <v>9</v>
+      <c r="Y22" s="26">
+        <v>4</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>418</v>
@@ -10051,7 +10052,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1629</v>
+        <v>1615</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>403</v>
@@ -10104,7 +10105,7 @@
       <c r="T23" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="26">
         <v>3</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -10116,7 +10117,7 @@
       <c r="X23" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="26">
         <v>2</v>
       </c>
       <c r="Z23" s="1" t="s">
@@ -10179,13 +10180,13 @@
         <v>104</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>1693</v>
+        <v>1679</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>1694</v>
+        <v>1680</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>1695</v>
+        <v>1681</v>
       </c>
       <c r="Q24" s="8" t="s">
         <v>444</v>
@@ -10199,7 +10200,7 @@
       <c r="T24" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="U24" s="8" t="s">
+      <c r="U24" s="27" t="s">
         <v>448</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -10211,26 +10212,26 @@
       <c r="X24" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="Y24" s="8" t="s">
+      <c r="Y24" s="27" t="s">
         <v>452</v>
       </c>
       <c r="Z24" s="8" t="s">
         <v>453</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>1696</v>
+        <v>1682</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>1697</v>
+        <v>1683</v>
       </c>
       <c r="AD24" s="8" t="s">
-        <v>1698</v>
+        <v>1684</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>1699</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="20" customHeight="1">
@@ -10241,7 +10242,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1630</v>
+        <v>1616</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>455</v>
@@ -10294,7 +10295,7 @@
       <c r="T25" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="26">
         <v>3</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -10306,7 +10307,7 @@
       <c r="X25" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="26">
         <v>2</v>
       </c>
       <c r="Z25" s="1" t="s">
@@ -10389,8 +10390,8 @@
       <c r="T26" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="U26" s="1">
-        <v>6</v>
+      <c r="U26" s="26">
+        <v>3</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>483</v>
@@ -10401,8 +10402,8 @@
       <c r="X26" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="Y26" s="1">
-        <v>8</v>
+      <c r="Y26" s="26">
+        <v>4</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>486</v>
@@ -10431,7 +10432,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1631</v>
+        <v>1617</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>455</v>
@@ -10484,7 +10485,7 @@
       <c r="T27" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="26">
         <v>4</v>
       </c>
       <c r="V27" s="1" t="s">
@@ -10496,7 +10497,7 @@
       <c r="X27" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27" s="26">
         <v>4</v>
       </c>
       <c r="Z27" s="1" t="s">
@@ -10559,13 +10560,13 @@
         <v>104</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>1700</v>
+        <v>1686</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>510</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>1701</v>
+        <v>1687</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>511</v>
@@ -10579,7 +10580,7 @@
       <c r="T28" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="U28" s="8" t="s">
+      <c r="U28" s="27" t="s">
         <v>515</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -10589,13 +10590,13 @@
         <v>517</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>1702</v>
-      </c>
-      <c r="Y28" s="8" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Y28" s="27" t="s">
         <v>518</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>1703</v>
+        <v>1689</v>
       </c>
       <c r="AA28" s="8" t="s">
         <v>519</v>
@@ -10607,7 +10608,7 @@
         <v>521</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>1704</v>
+        <v>1690</v>
       </c>
       <c r="AE28" s="8" t="s">
         <v>522</v>
@@ -10621,7 +10622,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>1632</v>
+        <v>1618</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>523</v>
@@ -10674,7 +10675,7 @@
       <c r="T29" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="26">
         <v>3</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -10686,7 +10687,7 @@
       <c r="X29" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29" s="26">
         <v>2</v>
       </c>
       <c r="Z29" s="1" t="s">
@@ -10769,8 +10770,8 @@
       <c r="T30" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="U30" s="1">
-        <v>7</v>
+      <c r="U30" s="26">
+        <v>3</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>545</v>
@@ -10781,8 +10782,8 @@
       <c r="X30" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="Y30" s="1">
-        <v>8</v>
+      <c r="Y30" s="26">
+        <v>3</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>548</v>
@@ -10811,7 +10812,7 @@
         <v>81</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>1633</v>
+        <v>1619</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>554</v>
@@ -10864,7 +10865,7 @@
       <c r="T31" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31" s="26">
         <v>4</v>
       </c>
       <c r="V31" s="1" t="s">
@@ -10876,7 +10877,7 @@
       <c r="X31" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y31" s="26">
         <v>2</v>
       </c>
       <c r="Z31" s="1" t="s">
@@ -10939,13 +10940,13 @@
         <v>104</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>1705</v>
+        <v>1691</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>1706</v>
+        <v>1692</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>1707</v>
+        <v>1693</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>573</v>
@@ -10959,7 +10960,7 @@
       <c r="T32" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="U32" s="8" t="s">
+      <c r="U32" s="27" t="s">
         <v>577</v>
       </c>
       <c r="V32" s="1" t="s">
@@ -10969,9 +10970,9 @@
         <v>450</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>1708</v>
-      </c>
-      <c r="Y32" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="Y32" s="27" t="s">
         <v>579</v>
       </c>
       <c r="Z32" s="8" t="s">
@@ -10984,10 +10985,10 @@
         <v>582</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>1709</v>
+        <v>1695</v>
       </c>
       <c r="AD32" s="8" t="s">
-        <v>1710</v>
+        <v>1696</v>
       </c>
       <c r="AE32" s="8" t="s">
         <v>583</v>
@@ -11001,7 +11002,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>1634</v>
+        <v>1620</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>584</v>
@@ -11054,7 +11055,7 @@
       <c r="T33" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="26">
         <v>3</v>
       </c>
       <c r="V33" s="1" t="s">
@@ -11066,7 +11067,7 @@
       <c r="X33" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Y33" s="26">
         <v>2</v>
       </c>
       <c r="Z33" s="1" t="s">
@@ -11149,8 +11150,8 @@
       <c r="T34" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="U34" s="1">
-        <v>8</v>
+      <c r="U34" s="26">
+        <v>4</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>610</v>
@@ -11161,8 +11162,8 @@
       <c r="X34" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="Y34" s="1">
-        <v>8</v>
+      <c r="Y34" s="26">
+        <v>4</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>613</v>
@@ -11191,7 +11192,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>1635</v>
+        <v>1621</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>584</v>
@@ -11244,7 +11245,7 @@
       <c r="T35" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U35" s="26">
         <v>4</v>
       </c>
       <c r="V35" s="1" t="s">
@@ -11256,7 +11257,7 @@
       <c r="X35" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Y35" s="26">
         <v>2</v>
       </c>
       <c r="Z35" s="1" t="s">
@@ -11319,13 +11320,13 @@
         <v>104</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>1711</v>
+        <v>1697</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>1712</v>
+        <v>1698</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>1713</v>
+        <v>1699</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>637</v>
@@ -11339,38 +11340,38 @@
       <c r="T36" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="U36" s="8" t="s">
+      <c r="U36" s="27" t="s">
         <v>641</v>
       </c>
       <c r="V36" s="8" t="s">
         <v>642</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1682</v>
+        <v>1668</v>
       </c>
       <c r="X36" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="Y36" s="8" t="s">
+      <c r="Y36" s="27" t="s">
         <v>644</v>
       </c>
       <c r="Z36" s="8" t="s">
         <v>645</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>1696</v>
+        <v>1682</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>646</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>1714</v>
+        <v>1700</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>1715</v>
+        <v>1701</v>
       </c>
       <c r="AE36" s="8" t="s">
-        <v>1716</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="20" customHeight="1">
@@ -11381,7 +11382,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>1636</v>
+        <v>1622</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>647</v>
@@ -11432,40 +11433,40 @@
         <v>657</v>
       </c>
       <c r="T37" s="23" t="s">
+        <v>1757</v>
+      </c>
+      <c r="U37" s="26">
+        <v>3</v>
+      </c>
+      <c r="V37" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="W37" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="V37" s="8" t="s">
+      <c r="X37" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="W37" s="8" t="s">
+      <c r="Y37" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="X37" s="8" t="s">
+      <c r="AA37" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="AB37" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="Z37" s="8" t="s">
+      <c r="AC37" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="AA37" s="8" t="s">
+      <c r="AD37" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="AB37" s="8" t="s">
+      <c r="AE37" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="AC37" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD37" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="AE37" s="8" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="20" customHeight="1">
@@ -11476,7 +11477,7 @@
         <v>59</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>647</v>
@@ -11488,13 +11489,13 @@
         <v>39</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>651</v>
@@ -11517,7 +11518,7 @@
         <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>647</v>
@@ -11529,16 +11530,16 @@
         <v>39</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>200</v>
@@ -11550,58 +11551,58 @@
         <v>104</v>
       </c>
       <c r="N39" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q39" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="R39" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="S39" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="T39" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="U39" s="27" t="s">
         <v>683</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="V39" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="W39" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="U39" s="8" t="s">
+      <c r="X39" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="V39" s="10" t="s">
+      <c r="Y39" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="Z39" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="AA39" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="Y39" s="8" t="s">
+      <c r="AB39" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="AC39" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AE39" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="AA39" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AB39" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="AC39" s="8" t="s">
-        <v>1717</v>
-      </c>
-      <c r="AD39" s="8" t="s">
-        <v>1718</v>
-      </c>
-      <c r="AE39" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="20" customHeight="1">
@@ -11612,10 +11613,10 @@
         <v>31</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>1637</v>
+        <v>1623</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>34</v>
@@ -11630,10 +11631,10 @@
         <v>39</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>200</v>
@@ -11645,27 +11646,27 @@
         <v>42</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="U40" s="1">
+        <v>700</v>
+      </c>
+      <c r="U40" s="26">
         <v>3</v>
       </c>
       <c r="V40" s="1" t="s">
@@ -11677,17 +11678,17 @@
       <c r="X40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40" s="26">
         <v>2</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>56</v>
@@ -11707,10 +11708,10 @@
         <v>59</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>61</v>
@@ -11719,16 +11720,16 @@
         <v>39</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>200</v>
@@ -11740,58 +11741,58 @@
         <v>61</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="U41" s="26">
+        <v>4</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="U41" s="1">
-        <v>9</v>
-      </c>
-      <c r="V41" s="1" t="s">
+      <c r="Y41" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="AA41" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="AB41" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="Y41" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AE41" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="AC41" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="36.5" customHeight="1">
@@ -11802,28 +11803,28 @@
         <v>81</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>1638</v>
+        <v>1624</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>200</v>
@@ -11832,61 +11833,61 @@
         <v>85</v>
       </c>
       <c r="M42" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="O42" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="N42" s="8" t="s">
+      <c r="P42" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q42" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="R42" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="S42" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="Q42" s="8" t="s">
+      <c r="T42" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="R42" s="8" t="s">
+      <c r="U42" s="26">
+        <v>3</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="S42" s="8" t="s">
+      <c r="W42" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="T42" s="8" t="s">
+      <c r="X42" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="U42" s="1">
-        <v>3</v>
-      </c>
-      <c r="V42" s="1" t="s">
+      <c r="Y42" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="AA42" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="AB42" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="Y42" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z42" s="8" t="s">
+      <c r="AC42" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="AA42" s="8" t="s">
+      <c r="AD42" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AE42" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="AC42" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="AE42" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="20" customHeight="1">
@@ -11897,10 +11898,10 @@
         <v>102</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>104</v>
@@ -11909,16 +11910,16 @@
         <v>39</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>200</v>
@@ -11930,58 +11931,58 @@
         <v>104</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>1719</v>
+        <v>1705</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>1720</v>
+        <v>1706</v>
       </c>
       <c r="P43" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="S43" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="T43" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="R43" s="8" t="s">
+      <c r="U43" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="S43" s="8" t="s">
+      <c r="V43" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="W43" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="U43" s="8" t="s">
+      <c r="X43" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="Y43" s="27" t="s">
         <v>750</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="Z43" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="AA43" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="Y43" s="8" t="s">
+      <c r="AB43" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="Z43" s="8" t="s">
+      <c r="AC43" s="8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AD43" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AE43" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="AA43" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>1721</v>
-      </c>
-      <c r="AD43" s="8" t="s">
-        <v>1722</v>
-      </c>
-      <c r="AE43" s="8" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="20" customHeight="1">
@@ -11992,10 +11993,10 @@
         <v>31</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>1639</v>
+        <v>1625</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>34</v>
@@ -12004,13 +12005,13 @@
         <v>35</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>39</v>
@@ -12025,58 +12026,58 @@
         <v>42</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="U44" s="26">
+        <v>4</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="Y44" s="29">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="AA44" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="AB44" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="AC44" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="AE44" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="AC44" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="20" customHeight="1">
@@ -12087,10 +12088,10 @@
         <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>61</v>
@@ -12099,13 +12100,13 @@
         <v>39</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>39</v>
@@ -12120,58 +12121,58 @@
         <v>61</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="U45" s="26">
+        <v>4</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="Y45" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="AA45" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="U45" s="1">
-        <v>9</v>
-      </c>
-      <c r="V45" s="1" t="s">
+      <c r="AB45" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="Y45" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z45" s="1" t="s">
+      <c r="AE45" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="AC45" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="AD45" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="AE45" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="25.5" customHeight="1">
@@ -12182,10 +12183,10 @@
         <v>81</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>303</v>
@@ -12194,13 +12195,13 @@
         <v>83</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>39</v>
@@ -12215,58 +12216,58 @@
         <v>303</v>
       </c>
       <c r="N46" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="S46" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="T46" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="U46" s="26">
+        <v>2</v>
+      </c>
+      <c r="V46" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="W46" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="R46" s="8" t="s">
+      <c r="X46" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="Y46" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="AA46" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="U46" s="1">
-        <v>2</v>
-      </c>
-      <c r="V46" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="AC46" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="AD46" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="Y46" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="1" t="s">
+      <c r="AE46" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="AA46" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="AC46" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="AD46" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="AE46" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="20" customHeight="1">
@@ -12277,10 +12278,10 @@
         <v>102</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>104</v>
@@ -12289,10 +12290,10 @@
         <v>39</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>107</v>
@@ -12310,58 +12311,58 @@
         <v>104</v>
       </c>
       <c r="N47" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="S47" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="O47" s="8" t="s">
+      <c r="T47" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="P47" s="8" t="s">
+      <c r="U47" s="27" t="s">
         <v>822</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="V47" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="R47" s="8" t="s">
+      <c r="W47" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="S47" s="8" t="s">
+      <c r="X47" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="Y47" s="27" t="s">
         <v>826</v>
       </c>
-      <c r="U47" s="8" t="s">
+      <c r="Z47" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="V47" s="9" t="s">
+      <c r="AA47" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AB47" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="AC47" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="X47" s="8" t="s">
+      <c r="AD47" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="Y47" s="8" t="s">
+      <c r="AE47" s="8" t="s">
         <v>831</v>
-      </c>
-      <c r="Z47" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="AA47" s="8" t="s">
-        <v>1723</v>
-      </c>
-      <c r="AB47" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="AC47" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="AD47" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE47" s="8" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="20" customHeight="1">
@@ -12372,10 +12373,10 @@
         <v>31</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>1640</v>
+        <v>1626</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>34</v>
@@ -12384,13 +12385,13 @@
         <v>35</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>39</v>
@@ -12405,27 +12406,27 @@
         <v>42</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="S48" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="T48" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="U48" s="1">
+      <c r="U48" s="26">
         <v>3</v>
       </c>
       <c r="V48" s="1" t="s">
@@ -12437,17 +12438,17 @@
       <c r="X48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y48" s="26">
         <v>2</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>56</v>
@@ -12467,10 +12468,10 @@
         <v>59</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>61</v>
@@ -12479,13 +12480,13 @@
         <v>39</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>39</v>
@@ -12500,58 +12501,58 @@
         <v>61</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="U49" s="26">
+        <v>3</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="W49" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="X49" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="Y49" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="AA49" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="U49" s="1">
-        <v>6</v>
-      </c>
-      <c r="V49" s="1" t="s">
+      <c r="AB49" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="AC49" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="X49" s="1" t="s">
+      <c r="AD49" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="Y49" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z49" s="1" t="s">
+      <c r="AE49" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="AD49" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="AE49" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="20" customHeight="1">
@@ -12562,10 +12563,10 @@
         <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>104</v>
@@ -12574,13 +12575,13 @@
         <v>39</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>39</v>
@@ -12595,58 +12596,58 @@
         <v>104</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>1724</v>
+        <v>1710</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>1725</v>
+        <v>1711</v>
       </c>
       <c r="P50" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="T50" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="U50" s="27" t="s">
         <v>871</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="V50" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="R50" s="8" t="s">
+      <c r="W50" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="S50" s="8" t="s">
+      <c r="X50" s="8" t="s">
+        <v>1712</v>
+      </c>
+      <c r="Y50" s="27" t="s">
         <v>874</v>
       </c>
-      <c r="T50" s="8" t="s">
+      <c r="Z50" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="U50" s="8" t="s">
+      <c r="AA50" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AB50" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="X50" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="Y50" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="Z50" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="AA50" s="8" t="s">
-        <v>1727</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>881</v>
-      </c>
       <c r="AC50" s="8" t="s">
-        <v>1728</v>
+        <v>1714</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>1729</v>
+        <v>1715</v>
       </c>
       <c r="AE50" s="8" t="s">
-        <v>1730</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="20" customHeight="1">
@@ -12657,10 +12658,10 @@
         <v>31</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>1641</v>
+        <v>1627</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>34</v>
@@ -12669,16 +12670,16 @@
         <v>35</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>200</v>
@@ -12690,27 +12691,27 @@
         <v>42</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="U51" s="1">
+        <v>887</v>
+      </c>
+      <c r="U51" s="26">
         <v>3</v>
       </c>
       <c r="V51" s="12" t="s">
@@ -12722,17 +12723,17 @@
       <c r="X51" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y51" s="26">
         <v>2</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>56</v>
@@ -12741,7 +12742,7 @@
         <v>57</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="36.5" customHeight="1">
@@ -12752,10 +12753,10 @@
         <v>81</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>1642</v>
+        <v>1628</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>303</v>
@@ -12764,16 +12765,16 @@
         <v>83</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>200</v>
@@ -12785,58 +12786,58 @@
         <v>303</v>
       </c>
       <c r="N52" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="S52" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="O52" s="8" t="s">
+      <c r="T52" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="U52" s="26">
+        <v>4</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="W52" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="X52" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="S52" s="8" t="s">
+      <c r="Y52" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="T52" s="8" t="s">
+      <c r="AA52" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="U52" s="1">
-        <v>4</v>
-      </c>
-      <c r="V52" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="AC52" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="AD52" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="Y52" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z52" s="1" t="s">
+      <c r="AE52" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="AA52" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="AC52" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="AD52" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE52" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="20" customHeight="1">
@@ -12847,10 +12848,10 @@
         <v>31</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>1643</v>
+        <v>1629</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>34</v>
@@ -12859,16 +12860,16 @@
         <v>35</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>200</v>
@@ -12880,10 +12881,10 @@
         <v>42</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>342</v>
@@ -12892,15 +12893,15 @@
         <v>531</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>48</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="U53" s="1">
+        <v>918</v>
+      </c>
+      <c r="U53" s="26">
         <v>3</v>
       </c>
       <c r="V53" s="1" t="s">
@@ -12912,7 +12913,7 @@
       <c r="X53" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y53" s="26">
         <v>2</v>
       </c>
       <c r="Z53" s="1" t="s">
@@ -12922,10 +12923,10 @@
         <v>54</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="AD53" s="1" t="s">
         <v>57</v>
@@ -12942,10 +12943,10 @@
         <v>81</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1644</v>
+        <v>1630</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>303</v>
@@ -12954,16 +12955,16 @@
         <v>83</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>200</v>
@@ -12975,58 +12976,58 @@
         <v>303</v>
       </c>
       <c r="N54" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="S54" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="T54" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="P54" s="8" t="s">
+      <c r="U54" s="26">
+        <v>3</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="Q54" s="8" t="s">
+      <c r="W54" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="R54" s="8" t="s">
+      <c r="X54" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="S54" s="8" t="s">
+      <c r="Y54" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="T54" s="8" t="s">
+      <c r="AA54" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="U54" s="1">
-        <v>3</v>
-      </c>
-      <c r="V54" s="1" t="s">
+      <c r="AB54" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="AC54" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="AD54" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="Y54" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="8" t="s">
+      <c r="AE54" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="AA54" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="AC54" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="AD54" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="AE54" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="20" customHeight="1">
@@ -13037,10 +13038,10 @@
         <v>102</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>104</v>
@@ -13049,16 +13050,16 @@
         <v>39</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>200</v>
@@ -13070,58 +13071,58 @@
         <v>104</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>1731</v>
+        <v>1717</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>1732</v>
+        <v>1718</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>1733</v>
+        <v>1719</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>1734</v>
+        <v>1720</v>
       </c>
       <c r="R55" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="U55" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="X55" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="Y55" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="S55" s="8" t="s">
+      <c r="Z55" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AA55" s="8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AB55" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="T55" s="8" t="s">
+      <c r="AC55" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="U55" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="V55" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="X55" s="8" t="s">
-        <v>1735</v>
-      </c>
-      <c r="Y55" s="8" t="s">
-        <v>951</v>
-      </c>
-      <c r="Z55" s="8" t="s">
-        <v>1736</v>
-      </c>
-      <c r="AA55" s="8" t="s">
-        <v>1737</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="AC55" s="8" t="s">
-        <v>953</v>
-      </c>
       <c r="AD55" s="8" t="s">
-        <v>1738</v>
+        <v>1724</v>
       </c>
       <c r="AE55" s="8" t="s">
-        <v>1739</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="20" customHeight="1">
@@ -13132,10 +13133,10 @@
         <v>31</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>1667</v>
+        <v>1653</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>34</v>
@@ -13144,13 +13145,13 @@
         <v>35</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>39</v>
@@ -13165,58 +13166,58 @@
         <v>42</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="T56" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="U56" s="26">
+        <v>4</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="W56" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="Y56" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z56" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="U56" s="1" t="s">
+      <c r="AB56" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="AD56" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="AE56" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="AA56" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="AC56" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="AD56" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="AE56" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="20" customHeight="1">
@@ -13227,10 +13228,10 @@
         <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>61</v>
@@ -13239,13 +13240,13 @@
         <v>39</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>39</v>
@@ -13260,58 +13261,58 @@
         <v>61</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="U57" s="26">
+        <v>3</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="W57" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Y57" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="AA57" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="AB57" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="AC57" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="U57" s="1">
-        <v>6</v>
-      </c>
-      <c r="V57" s="1" t="s">
+      <c r="AD57" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="AE57" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>8</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="AA57" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="AC57" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="AD57" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="AE57" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="50.5" customHeight="1">
@@ -13322,25 +13323,25 @@
         <v>81</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>1665</v>
+        <v>1651</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>39</v>
@@ -13352,61 +13353,61 @@
         <v>85</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N58" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="S58" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="T58" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="U58" s="26">
+        <v>4</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="O58" s="8" t="s">
+      <c r="W58" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="P58" s="8" t="s">
+      <c r="X58" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="Q58" s="8" t="s">
+      <c r="Y58" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z58" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="R58" s="8" t="s">
+      <c r="AA58" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="S58" s="8" t="s">
+      <c r="AB58" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="T58" s="8" t="s">
+      <c r="AC58" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="U58" s="1">
-        <v>4</v>
-      </c>
-      <c r="V58" s="1" t="s">
+      <c r="AD58" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="AE58" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AA58" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AC58" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AD58" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AE58" s="1" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="20" customHeight="1">
@@ -13417,10 +13418,10 @@
         <v>31</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>1618</v>
+        <v>1604</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>34</v>
@@ -13429,16 +13430,16 @@
         <v>35</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>200</v>
@@ -13450,58 +13451,58 @@
         <v>42</v>
       </c>
       <c r="N59" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="T59" s="8" t="s">
+        <v>1756</v>
+      </c>
+      <c r="U59" s="26">
+        <v>3</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W59" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="O59" s="8" t="s">
+      <c r="X59" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="Y59" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z59" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="Q59" s="8" t="s">
+      <c r="AA59" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="R59" s="8" t="s">
+      <c r="AB59" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="S59" s="1" t="s">
+      <c r="AC59" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="T59" s="8" t="s">
+      <c r="AD59" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="U59" s="1" t="s">
+      <c r="AE59" s="8" t="s">
         <v>1023</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="X59" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="Y59" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="Z59" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AA59" s="8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AB59" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AC59" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AD59" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AE59" s="8" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="20" customHeight="1">
@@ -13512,10 +13513,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>61</v>
@@ -13524,16 +13525,16 @@
         <v>39</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>200</v>
@@ -13545,58 +13546,58 @@
         <v>61</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U60" s="26">
+        <v>5</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Y60" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="AA60" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="AB60" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="AC60" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="AD60" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="AE60" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="U60" s="1">
-        <v>5</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Y60" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AB60" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AC60" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AD60" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AE60" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="36.5" customHeight="1">
@@ -13607,10 +13608,10 @@
         <v>81</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>303</v>
@@ -13619,16 +13620,16 @@
         <v>83</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>200</v>
@@ -13640,58 +13641,58 @@
         <v>303</v>
       </c>
       <c r="N61" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U61" s="26">
+        <v>4</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Y61" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z61" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="AA61" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="P61" s="8" t="s">
+      <c r="AB61" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="Q61" s="8" t="s">
+      <c r="AC61" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="R61" s="8" t="s">
+      <c r="AD61" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="S61" s="8" t="s">
+      <c r="AE61" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="T61" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="U61" s="1">
-        <v>4</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="Y61" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AA61" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AC61" s="8" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AD61" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AE61" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="20" customHeight="1">
@@ -13702,10 +13703,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>1664</v>
+        <v>1650</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>34</v>
@@ -13717,13 +13718,13 @@
         <v>39</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>200</v>
@@ -13735,58 +13736,58 @@
         <v>42</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U62" s="26">
+        <v>4</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Y62" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z62" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="AA62" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="AC62" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="AD62" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="AE62" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Y62" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AA62" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AC62" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AD62" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AE62" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="20" customHeight="1">
@@ -13797,10 +13798,10 @@
         <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>61</v>
@@ -13812,13 +13813,13 @@
         <v>39</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>200</v>
@@ -13830,58 +13831,58 @@
         <v>61</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="O63" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="U63" s="26">
+        <v>5</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Y63" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AC63" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="AE63" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="U63" s="1">
-        <v>5</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z63" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AA63" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AB63" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AC63" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AD63" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AE63" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="36.5" customHeight="1">
@@ -13892,10 +13893,10 @@
         <v>81</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>82</v>
@@ -13904,16 +13905,16 @@
         <v>83</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>200</v>
@@ -13925,58 +13926,58 @@
         <v>82</v>
       </c>
       <c r="N64" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S64" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="U64" s="26">
+        <v>5</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Y64" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AA64" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AB64" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="O64" s="8" t="s">
+      <c r="AC64" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="P64" s="8" t="s">
+      <c r="AD64" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="Q64" s="8" t="s">
+      <c r="AE64" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="R64" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="S64" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="T64" s="8" t="s">
-        <v>1118</v>
-      </c>
-      <c r="U64" s="1">
-        <v>5</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AA64" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AC64" s="8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AD64" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AE64" s="1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="20" customHeight="1">
@@ -13987,10 +13988,10 @@
         <v>31</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>1662</v>
+        <v>1648</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>34</v>
@@ -13999,16 +14000,16 @@
         <v>35</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>40</v>
@@ -14020,49 +14021,49 @@
         <v>42</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>206</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="U65" s="1">
+        <v>1126</v>
+      </c>
+      <c r="U65" s="26">
         <v>3</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>208</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="Y65" s="26">
         <v>2</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="AC65" s="1" t="s">
         <v>214</v>
@@ -14082,10 +14083,10 @@
         <v>59</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>61</v>
@@ -14094,16 +14095,16 @@
         <v>39</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>40</v>
@@ -14115,58 +14116,58 @@
         <v>61</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="U66" s="26">
+        <v>3</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Y66" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AB66" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="AC66" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="AD66" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="AE66" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="U66" s="1">
-        <v>7</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AC66" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AD66" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AE66" s="1" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="36.5" customHeight="1">
@@ -14177,10 +14178,10 @@
         <v>81</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>82</v>
@@ -14189,16 +14190,16 @@
         <v>83</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>40</v>
@@ -14210,58 +14211,58 @@
         <v>82</v>
       </c>
       <c r="N67" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="U67" s="26">
+        <v>4</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="Y67" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AA67" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AC67" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="AD67" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="P67" s="8" t="s">
+      <c r="AE67" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="R67" s="8" t="s">
-        <v>1169</v>
-      </c>
-      <c r="S67" s="8" t="s">
-        <v>1170</v>
-      </c>
-      <c r="T67" s="8" t="s">
-        <v>1171</v>
-      </c>
-      <c r="U67" s="1">
-        <v>4</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AA67" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AC67" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AD67" s="8" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AE67" s="1" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="20" customHeight="1">
@@ -14272,10 +14273,10 @@
         <v>31</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>1661</v>
+        <v>1647</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>34</v>
@@ -14284,13 +14285,13 @@
         <v>35</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>39</v>
@@ -14305,55 +14306,55 @@
         <v>42</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="U68" s="1">
+        <v>1178</v>
+      </c>
+      <c r="U68" s="26">
         <v>3</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>208</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="Y68" s="1">
+        <v>1180</v>
+      </c>
+      <c r="Y68" s="26">
         <v>2</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="AE68" s="1" t="s">
         <v>58</v>
@@ -14367,10 +14368,10 @@
         <v>59</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>61</v>
@@ -14379,13 +14380,13 @@
         <v>39</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>108</v>
@@ -14400,58 +14401,58 @@
         <v>61</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="U69" s="26">
+        <v>4</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Y69" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AB69" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="AC69" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="AD69" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="AE69" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="U69" s="1">
-        <v>9</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="Y69" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AA69" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AB69" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AC69" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AD69" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="AE69" s="1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="20" customHeight="1">
@@ -14462,10 +14463,10 @@
         <v>59</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>61</v>
@@ -14474,13 +14475,13 @@
         <v>39</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>39</v>
@@ -14495,58 +14496,58 @@
         <v>61</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="U70" s="26">
+        <v>3</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Y70" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AB70" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="AC70" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="AD70" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="AE70" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U70" s="1">
-        <v>8</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="Y70" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AA70" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AC70" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AD70" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AE70" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="20" customHeight="1">
@@ -14557,10 +14558,10 @@
         <v>31</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>1659</v>
+        <v>1645</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>34</v>
@@ -14569,13 +14570,13 @@
         <v>35</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>39</v>
@@ -14590,27 +14591,27 @@
         <v>42</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>271</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>48</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="U71" s="1">
+        <v>1233</v>
+      </c>
+      <c r="U71" s="26">
         <v>3</v>
       </c>
       <c r="V71" s="1" t="s">
@@ -14622,7 +14623,7 @@
       <c r="X71" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y71" s="1">
+      <c r="Y71" s="26">
         <v>2</v>
       </c>
       <c r="Z71" s="1" t="s">
@@ -14635,7 +14636,7 @@
         <v>401</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="AD71" s="1" t="s">
         <v>57</v>
@@ -14652,10 +14653,10 @@
         <v>59</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>61</v>
@@ -14664,13 +14665,13 @@
         <v>39</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>39</v>
@@ -14685,58 +14686,58 @@
         <v>61</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="U72" s="26">
+        <v>4</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Y72" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AB72" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="AC72" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="AD72" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="AE72" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="U72" s="1">
-        <v>9</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="AA72" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AB72" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AC72" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="AD72" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AE72" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="36.5" customHeight="1">
@@ -14747,10 +14748,10 @@
         <v>81</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>1658</v>
+        <v>1644</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>82</v>
@@ -14759,13 +14760,13 @@
         <v>83</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>39</v>
@@ -14780,58 +14781,58 @@
         <v>82</v>
       </c>
       <c r="N73" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="T73" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="U73" s="26">
+        <v>4</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Y73" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z73" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AA73" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AB73" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="AC73" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="P73" s="8" t="s">
+      <c r="AD73" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="Q73" s="8" t="s">
+      <c r="AE73" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="R73" s="8" t="s">
-        <v>1271</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>1272</v>
-      </c>
-      <c r="T73" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="U73" s="1">
-        <v>4</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="W73" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="Y73" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z73" s="8" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AA73" s="8" t="s">
-        <v>1278</v>
-      </c>
-      <c r="AB73" s="8" t="s">
-        <v>1279</v>
-      </c>
-      <c r="AC73" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="AD73" s="8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="AE73" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="20" customHeight="1">
@@ -14842,10 +14843,10 @@
         <v>31</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>1657</v>
+        <v>1643</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>34</v>
@@ -14854,13 +14855,13 @@
         <v>35</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>39</v>
@@ -14875,27 +14876,27 @@
         <v>42</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>206</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="U74" s="1">
+        <v>1280</v>
+      </c>
+      <c r="U74" s="26">
         <v>3</v>
       </c>
       <c r="V74" s="1" t="s">
@@ -14905,19 +14906,19 @@
         <v>595</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Y74" s="1">
+        <v>1281</v>
+      </c>
+      <c r="Y74" s="26">
         <v>2</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="AC74" s="1" t="s">
         <v>214</v>
@@ -14937,10 +14938,10 @@
         <v>59</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>61</v>
@@ -14949,13 +14950,13 @@
         <v>39</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>108</v>
@@ -14970,58 +14971,58 @@
         <v>61</v>
       </c>
       <c r="N75" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="U75" s="26">
+        <v>5</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Y75" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AB75" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="AC75" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="AD75" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="AE75" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="U75" s="1">
-        <v>9</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="Y75" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z75" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AA75" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AC75" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AD75" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AE75" s="1" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="18.75" customHeight="1">
@@ -15032,10 +15033,10 @@
         <v>102</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>104</v>
@@ -15044,13 +15045,13 @@
         <v>39</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>108</v>
@@ -15065,58 +15066,58 @@
         <v>104</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>1740</v>
+        <v>1726</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="S76" s="8" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>1323</v>
-      </c>
-      <c r="U76" s="8" t="s">
-        <v>1324</v>
+        <v>1311</v>
+      </c>
+      <c r="U76" s="27" t="s">
+        <v>1312</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="X76" s="8" t="s">
-        <v>1325</v>
-      </c>
-      <c r="Y76" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Y76" s="27" t="s">
         <v>332</v>
       </c>
       <c r="Z76" s="8" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="AA76" s="8" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="AC76" s="8" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="AD76" s="8" t="s">
-        <v>1743</v>
+        <v>1729</v>
       </c>
       <c r="AE76" s="8" t="s">
-        <v>1744</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="20" customHeight="1">
@@ -15127,10 +15128,10 @@
         <v>31</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>1654</v>
+        <v>1640</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>34</v>
@@ -15139,16 +15140,16 @@
         <v>35</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>128</v>
@@ -15160,58 +15161,58 @@
         <v>42</v>
       </c>
       <c r="N77" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="U77" s="26">
+        <v>3</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Y77" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AB77" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="AC77" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="P77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="AE77" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="U77" s="1">
-        <v>3</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="Y77" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z77" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="AA77" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AB77" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AC77" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="AD77" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="AE77" s="1" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="20" customHeight="1">
@@ -15222,10 +15223,10 @@
         <v>59</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>61</v>
@@ -15234,16 +15235,16 @@
         <v>39</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>200</v>
@@ -15255,58 +15256,58 @@
         <v>61</v>
       </c>
       <c r="N78" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="U78" s="26">
+        <v>3</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Y78" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AB78" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="AC78" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="AD78" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="AE78" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="U78" s="1">
-        <v>7</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="X78" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="Y78" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z78" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AA78" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AB78" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AC78" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AD78" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AE78" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="20" customHeight="1">
@@ -15317,10 +15318,10 @@
         <v>102</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>104</v>
@@ -15329,16 +15330,16 @@
         <v>39</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>108</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>200</v>
@@ -15350,58 +15351,58 @@
         <v>104</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>1747</v>
+        <v>1733</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="R79" s="8" t="s">
-        <v>1748</v>
+        <v>1734</v>
       </c>
       <c r="S79" s="8" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="T79" s="8" t="s">
-        <v>1373</v>
-      </c>
-      <c r="U79" s="8" t="s">
-        <v>1374</v>
+        <v>1361</v>
+      </c>
+      <c r="U79" s="27" t="s">
+        <v>1362</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="X79" s="8" t="s">
-        <v>1749</v>
-      </c>
-      <c r="Y79" s="8" t="s">
-        <v>1376</v>
+        <v>1735</v>
+      </c>
+      <c r="Y79" s="27" t="s">
+        <v>1364</v>
       </c>
       <c r="Z79" s="8" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="AA79" s="8" t="s">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="AC79" s="8" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="AD79" s="8" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="AE79" s="8" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="20" customHeight="1">
@@ -15412,10 +15413,10 @@
         <v>31</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>1655</v>
+        <v>1641</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>34</v>
@@ -15424,16 +15425,16 @@
         <v>35</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>200</v>
@@ -15445,49 +15446,49 @@
         <v>42</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>206</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="U80" s="1">
+        <v>1126</v>
+      </c>
+      <c r="U80" s="26">
         <v>3</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>50</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="X80" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Y80" s="26">
         <v>2</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="AA80" s="1" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="AC80" s="1" t="s">
         <v>214</v>
@@ -15507,10 +15508,10 @@
         <v>81</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>1656</v>
+        <v>1642</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>82</v>
@@ -15519,16 +15520,16 @@
         <v>83</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>200</v>
@@ -15540,58 +15541,58 @@
         <v>82</v>
       </c>
       <c r="N81" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="R81" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="S81" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="T81" s="8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="U81" s="26">
+        <v>4</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Y81" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AA81" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AB81" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="O81" s="8" t="s">
+      <c r="AC81" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="P81" s="8" t="s">
+      <c r="AD81" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="Q81" s="8" t="s">
+      <c r="AE81" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="R81" s="8" t="s">
-        <v>1392</v>
-      </c>
-      <c r="S81" s="8" t="s">
-        <v>1393</v>
-      </c>
-      <c r="T81" s="8" t="s">
-        <v>1394</v>
-      </c>
-      <c r="U81" s="1">
-        <v>4</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="X81" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z81" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AA81" s="8" t="s">
-        <v>1399</v>
-      </c>
-      <c r="AB81" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="AC81" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AD81" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="AE81" s="1" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="20" customHeight="1">
@@ -15602,10 +15603,10 @@
         <v>102</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>104</v>
@@ -15614,16 +15615,16 @@
         <v>39</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>200</v>
@@ -15635,58 +15636,58 @@
         <v>104</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>1754</v>
+        <v>1740</v>
       </c>
       <c r="P82" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="R82" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="S82" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="T82" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="U82" s="27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="X82" s="23" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Y82" s="27" t="s">
+        <v>1404</v>
+      </c>
+      <c r="Z82" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AA82" s="8" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AC82" s="8" t="s">
+        <v>1742</v>
+      </c>
+      <c r="AD82" s="8" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AE82" s="8" t="s">
         <v>1408</v>
-      </c>
-      <c r="Q82" s="8" t="s">
-        <v>1409</v>
-      </c>
-      <c r="R82" s="8" t="s">
-        <v>1410</v>
-      </c>
-      <c r="S82" s="8" t="s">
-        <v>1411</v>
-      </c>
-      <c r="T82" s="8" t="s">
-        <v>1412</v>
-      </c>
-      <c r="U82" s="8" t="s">
-        <v>1413</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="W82" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="X82" s="23" t="s">
-        <v>1755</v>
-      </c>
-      <c r="Y82" s="8" t="s">
-        <v>1416</v>
-      </c>
-      <c r="Z82" s="8" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AA82" s="8" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AB82" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="AC82" s="8" t="s">
-        <v>1756</v>
-      </c>
-      <c r="AD82" s="8" t="s">
-        <v>1757</v>
-      </c>
-      <c r="AE82" s="8" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="20" customHeight="1">
@@ -15697,10 +15698,10 @@
         <v>31</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>34</v>
@@ -15709,16 +15710,16 @@
         <v>35</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>128</v>
@@ -15730,55 +15731,55 @@
         <v>42</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="U83" s="1">
+        <v>1418</v>
+      </c>
+      <c r="U83" s="26">
         <v>3</v>
       </c>
       <c r="V83" s="1" t="s">
         <v>50</v>
       </c>
       <c r="W83" s="24" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="X83" s="8" t="s">
-        <v>1431</v>
-      </c>
-      <c r="Y83" s="1">
+        <v>1419</v>
+      </c>
+      <c r="Y83" s="26">
         <v>2</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="AE83" s="1" t="s">
         <v>58</v>
@@ -15792,10 +15793,10 @@
         <v>102</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>104</v>
@@ -15804,16 +15805,16 @@
         <v>39</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>145</v>
@@ -15825,58 +15826,58 @@
         <v>104</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>1758</v>
+        <v>1744</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>1759</v>
+        <v>1745</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>1760</v>
+        <v>1746</v>
       </c>
       <c r="S84" s="8" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="T84" s="8" t="s">
-        <v>1761</v>
-      </c>
-      <c r="U84" s="8" t="s">
-        <v>1438</v>
+        <v>1747</v>
+      </c>
+      <c r="U84" s="27" t="s">
+        <v>1426</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="W84" s="1" t="s">
         <v>450</v>
       </c>
       <c r="X84" s="8" t="s">
-        <v>1440</v>
-      </c>
-      <c r="Y84" s="8" t="s">
-        <v>1441</v>
+        <v>1428</v>
+      </c>
+      <c r="Y84" s="27" t="s">
+        <v>1429</v>
       </c>
       <c r="Z84" s="8" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="AA84" s="8" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="AC84" s="8" t="s">
-        <v>1762</v>
+        <v>1748</v>
       </c>
       <c r="AD84" s="8" t="s">
-        <v>1763</v>
+        <v>1749</v>
       </c>
       <c r="AE84" s="8" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="20" customHeight="1">
@@ -15887,10 +15888,10 @@
         <v>31</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>1652</v>
+        <v>1638</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>34</v>
@@ -15899,16 +15900,16 @@
         <v>35</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>200</v>
@@ -15920,27 +15921,27 @@
         <v>42</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="U85" s="1">
+        <v>1445</v>
+      </c>
+      <c r="U85" s="26">
         <v>3</v>
       </c>
       <c r="V85" s="1" t="s">
@@ -15952,17 +15953,17 @@
       <c r="X85" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="Y85" s="1">
+      <c r="Y85" s="26">
         <v>2</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="AC85" s="1" t="s">
         <v>56</v>
@@ -15982,10 +15983,10 @@
         <v>102</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>104</v>
@@ -15994,16 +15995,16 @@
         <v>39</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>200</v>
@@ -16015,58 +16016,58 @@
         <v>104</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>1764</v>
+        <v>1750</v>
       </c>
       <c r="O86" s="23" t="s">
-        <v>1765</v>
+        <v>1751</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="S86" s="8" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="T86" s="8" t="s">
-        <v>1467</v>
-      </c>
-      <c r="U86" s="8" t="s">
-        <v>1468</v>
+        <v>1455</v>
+      </c>
+      <c r="U86" s="27" t="s">
+        <v>1456</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="X86" s="8" t="s">
-        <v>1469</v>
-      </c>
-      <c r="Y86" s="8" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Y86" s="27" t="s">
         <v>332</v>
       </c>
       <c r="Z86" s="8" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="AA86" s="8" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="AC86" s="8" t="s">
-        <v>1766</v>
+        <v>1752</v>
       </c>
       <c r="AD86" s="8" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="AE86" s="8" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="20" customHeight="1">
@@ -16077,10 +16078,10 @@
         <v>31</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>1651</v>
+        <v>1637</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>34</v>
@@ -16092,10 +16093,10 @@
         <v>39</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>39</v>
@@ -16110,27 +16111,27 @@
         <v>42</v>
       </c>
       <c r="N87" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="S87" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="T87" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="U87" s="1">
+      <c r="U87" s="26">
         <v>3</v>
       </c>
       <c r="V87" s="1" t="s">
@@ -16142,17 +16143,17 @@
       <c r="X87" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y87" s="1">
+      <c r="Y87" s="26">
         <v>2</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="AA87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="AC87" s="1" t="s">
         <v>56</v>
@@ -16172,10 +16173,10 @@
         <v>59</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>61</v>
@@ -16187,10 +16188,10 @@
         <v>39</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>39</v>
@@ -16205,58 +16206,58 @@
         <v>61</v>
       </c>
       <c r="N88" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="U88" s="26">
+        <v>5</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Y88" s="26">
+        <v>5</v>
+      </c>
+      <c r="Z88" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AB88" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="AC88" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="AD88" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="Q88" s="1" t="s">
+      <c r="AE88" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="U88" s="1">
-        <v>10</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="Y88" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z88" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="AA88" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="AB88" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="AC88" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="AD88" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AE88" s="1" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" customHeight="1">
@@ -16267,10 +16268,10 @@
         <v>31</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>1650</v>
+        <v>1636</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>34</v>
@@ -16279,13 +16280,13 @@
         <v>35</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>39</v>
@@ -16300,27 +16301,27 @@
         <v>42</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="U89" s="1">
+        <v>1492</v>
+      </c>
+      <c r="U89" s="26">
         <v>3</v>
       </c>
       <c r="V89" s="1" t="s">
@@ -16330,25 +16331,25 @@
         <v>347</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="Y89" s="1">
+        <v>1493</v>
+      </c>
+      <c r="Y89" s="26">
         <v>2</v>
       </c>
       <c r="Z89" s="12" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>58</v>
@@ -16362,25 +16363,25 @@
         <v>81</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>1649</v>
+        <v>1635</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>39</v>
@@ -16392,61 +16393,61 @@
         <v>85</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N90" s="8" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>1498</v>
+      </c>
+      <c r="P90" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Q90" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="R90" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S90" s="8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="T90" s="8" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U90" s="26">
+        <v>3</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Y90" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z90" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AA90" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AB90" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="O90" s="8" t="s">
+      <c r="AC90" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="P90" s="8" t="s">
+      <c r="AD90" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="Q90" s="8" t="s">
+      <c r="AE90" s="1" t="s">
         <v>1512</v>
-      </c>
-      <c r="R90" s="8" t="s">
-        <v>1513</v>
-      </c>
-      <c r="S90" s="8" t="s">
-        <v>1514</v>
-      </c>
-      <c r="T90" s="8" t="s">
-        <v>1515</v>
-      </c>
-      <c r="U90" s="1">
-        <v>3</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="W90" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="X90" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="Y90" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z90" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="AA90" s="8" t="s">
-        <v>1520</v>
-      </c>
-      <c r="AB90" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AC90" s="8" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AD90" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AE90" s="1" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="20" customHeight="1">
@@ -16457,10 +16458,10 @@
         <v>31</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>1648</v>
+        <v>1634</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>34</v>
@@ -16469,10 +16470,10 @@
         <v>35</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>39</v>
@@ -16490,27 +16491,27 @@
         <v>42</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>345</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="U91" s="1">
+        <v>1520</v>
+      </c>
+      <c r="U91" s="26">
         <v>3</v>
       </c>
       <c r="V91" s="1" t="s">
@@ -16522,17 +16523,17 @@
       <c r="X91" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y91" s="1">
+      <c r="Y91" s="26">
         <v>2</v>
       </c>
       <c r="Z91" s="1" t="s">
         <v>400</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="AC91" s="1" t="s">
         <v>56</v>
@@ -16552,10 +16553,10 @@
         <v>59</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>61</v>
@@ -16564,10 +16565,10 @@
         <v>39</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>39</v>
@@ -16585,58 +16586,58 @@
         <v>61</v>
       </c>
       <c r="N92" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="U92" s="26">
+        <v>4</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Y92" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AB92" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="AC92" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="AD92" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="Q92" s="1" t="s">
+      <c r="AE92" s="1" t="s">
         <v>1540</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="U92" s="1">
-        <v>8</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="W92" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="Y92" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z92" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AC92" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AD92" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="AE92" s="1" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="20" customHeight="1">
@@ -16647,10 +16648,10 @@
         <v>31</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>1647</v>
+        <v>1633</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>34</v>
@@ -16659,13 +16660,13 @@
         <v>35</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>39</v>
@@ -16680,58 +16681,58 @@
         <v>42</v>
       </c>
       <c r="N93" s="8" t="s">
+        <v>1545</v>
+      </c>
+      <c r="O93" s="8" t="s">
+        <v>1546</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>1547</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T93" s="23" t="s">
+        <v>1654</v>
+      </c>
+      <c r="U93" s="26">
+        <v>5</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="W93" s="8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="X93" s="8" t="s">
+        <v>1553</v>
+      </c>
+      <c r="Y93" s="27">
+        <v>3</v>
+      </c>
+      <c r="Z93" s="8" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AA93" s="8" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AB93" s="8" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AC93" s="8" t="s">
+        <v>1754</v>
+      </c>
+      <c r="AD93" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="O93" s="8" t="s">
-        <v>1558</v>
-      </c>
-      <c r="P93" s="8" t="s">
-        <v>1559</v>
-      </c>
-      <c r="Q93" s="8" t="s">
-        <v>1560</v>
-      </c>
-      <c r="R93" s="8" t="s">
-        <v>1561</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="T93" s="23" t="s">
-        <v>1668</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="W93" s="8" t="s">
-        <v>1565</v>
-      </c>
-      <c r="X93" s="8" t="s">
-        <v>1566</v>
-      </c>
-      <c r="Y93" s="8" t="s">
-        <v>1567</v>
-      </c>
-      <c r="Z93" s="8" t="s">
-        <v>1568</v>
-      </c>
-      <c r="AA93" s="8" t="s">
-        <v>1569</v>
-      </c>
-      <c r="AB93" s="8" t="s">
-        <v>1570</v>
-      </c>
-      <c r="AC93" s="8" t="s">
-        <v>1768</v>
-      </c>
-      <c r="AD93" s="8" t="s">
-        <v>1571</v>
-      </c>
       <c r="AE93" s="8" t="s">
-        <v>1769</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="36.5" customHeight="1">
@@ -16742,10 +16743,10 @@
         <v>81</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>1646</v>
+        <v>1632</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>303</v>
@@ -16754,13 +16755,13 @@
         <v>83</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>39</v>
@@ -16775,58 +16776,58 @@
         <v>303</v>
       </c>
       <c r="N94" s="8" t="s">
+        <v>1560</v>
+      </c>
+      <c r="O94" s="8" t="s">
+        <v>1561</v>
+      </c>
+      <c r="P94" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Q94" s="8" t="s">
+        <v>1563</v>
+      </c>
+      <c r="R94" s="8" t="s">
+        <v>1564</v>
+      </c>
+      <c r="S94" s="8" t="s">
+        <v>1565</v>
+      </c>
+      <c r="T94" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="U94" s="26">
+        <v>3</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Y94" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AA94" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AD94" s="8" t="s">
         <v>1574</v>
       </c>
-      <c r="O94" s="8" t="s">
+      <c r="AE94" s="1" t="s">
         <v>1575</v>
-      </c>
-      <c r="P94" s="8" t="s">
-        <v>1576</v>
-      </c>
-      <c r="Q94" s="8" t="s">
-        <v>1577</v>
-      </c>
-      <c r="R94" s="8" t="s">
-        <v>1578</v>
-      </c>
-      <c r="S94" s="8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="T94" s="8" t="s">
-        <v>1580</v>
-      </c>
-      <c r="U94" s="1">
-        <v>3</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>1581</v>
-      </c>
-      <c r="W94" s="1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="X94" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="Y94" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="AA94" s="8" t="s">
-        <v>1585</v>
-      </c>
-      <c r="AB94" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="AC94" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="AD94" s="8" t="s">
-        <v>1588</v>
-      </c>
-      <c r="AE94" s="1" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" customHeight="1">
@@ -16837,10 +16838,10 @@
         <v>31</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>1645</v>
+        <v>1631</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1590</v>
+        <v>1576</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>34</v>
@@ -16849,13 +16850,13 @@
         <v>35</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>1592</v>
+        <v>1578</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>39</v>
@@ -16870,10 +16871,10 @@
         <v>42</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>1594</v>
+        <v>1580</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>1595</v>
+        <v>1581</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>271</v>
@@ -16888,28 +16889,28 @@
         <v>48</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="U95" s="1">
+        <v>1582</v>
+      </c>
+      <c r="U95" s="26">
         <v>3</v>
       </c>
       <c r="V95" s="1" t="s">
         <v>208</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1597</v>
+        <v>1583</v>
       </c>
       <c r="X95" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y95" s="1">
+      <c r="Y95" s="26">
         <v>2</v>
       </c>
       <c r="Z95" s="1" t="s">
         <v>400</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="AB95" s="1" t="s">
         <v>401</v>
@@ -16932,10 +16933,10 @@
         <v>59</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1598</v>
+        <v>1584</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>1599</v>
+        <v>1585</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>61</v>
@@ -16944,13 +16945,13 @@
         <v>39</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>1600</v>
+        <v>1586</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>1601</v>
+        <v>1587</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>108</v>
@@ -16965,58 +16966,58 @@
         <v>61</v>
       </c>
       <c r="N96" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="U96" s="26">
+        <v>3</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="Y96" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z96" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AA96" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AC96" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AD96" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="AE96" s="1" t="s">
         <v>1603</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="U96" s="1">
-        <v>6</v>
-      </c>
-      <c r="V96" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="W96" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="X96" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="Y96" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z96" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="AA96" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="AB96" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="AC96" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="AD96" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="AE96" s="1" t="s">
-        <v>1617</v>
       </c>
     </row>
   </sheetData>
